--- a/xlsx/涌现_intext.xlsx
+++ b/xlsx/涌现_intext.xlsx
@@ -35,19 +35,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%9F%BB</t>
   </si>
   <si>
-    <t>白蟻</t>
+    <t>白蚁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E8%B1%A1</t>
   </si>
   <si>
-    <t>現象</t>
+    <t>现象</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里士多德</t>
+    <t>亚里士多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%96%AF%E5%9B%BE%E5%B0%94%E7%89%B9%C2%B7%E5%AF%86%E5%B0%94</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E5%AE%9A%E8%AB%96</t>
   </si>
   <si>
-    <t>決定論</t>
+    <t>决定论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A4%87%E9%9B%9C%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>複雜系統</t>
+    <t>复杂系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Aristotle</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E9%81%8A%E6%88%B2%E8%A1%93%E8%AA%9E%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>電子遊戲術語列表</t>
+    <t>电子游戏术语列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%92%E8%89%B2%E6%89%AE%E6%BC%94_(%E5%BF%83%E7%90%86%E5%AD%A6)</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E6%88%B2%E4%B8%BB%E6%8C%81%E8%80%85</t>
   </si>
   <si>
-    <t>遊戲主持者</t>
+    <t>游戏主持者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E7%8E%B0%E5%AE%9E</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%B4%E5%A2%9E%E5%AF%A6%E5%A2%83</t>
   </si>
   <si>
-    <t>擴增實境</t>
+    <t>扩增实境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%82%E8%AE%A1%E7%AE%97</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A6%E9%A1%9E%E5%AF%A6%E5%A2%83%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>另類實境遊戲</t>
+    <t>另类实境游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%A0%B4%E5%8B%95%E6%85%8B%E8%A7%92%E8%89%B2%E6%89%AE%E6%BC%94%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>臨場動態角色扮演遊戲</t>
+    <t>临场动态角色扮演游戏</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Affective_gaming</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%8C%E4%B8%8A%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>桌上遊戲</t>
+    <t>桌上游戏</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Serious_game</t>
